--- a/ejercicio2.xlsx
+++ b/ejercicio2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\DMining\Busqueda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristianSalgado\OneDrive - Pi Data Strategy &amp; Consulting\Test\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412A201-E135-40F7-B8F7-5DF95ED48883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio2" sheetId="3" r:id="rId1"/>
@@ -17,17 +18,26 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -46,17 +56,112 @@
   <si>
     <t>mora 60d</t>
   </si>
+  <si>
+    <t>Acurrancy(Precision)</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
+  </si>
+  <si>
+    <t>% Acumulado</t>
+  </si>
+  <si>
+    <t>Coeficiente de Gini = (2 * curva_ROC) - 1</t>
+  </si>
+  <si>
+    <t>Matriz de Confusion</t>
+  </si>
+  <si>
+    <t>Exactitud = (TP+TN)/total</t>
+  </si>
+  <si>
+    <t>Es el número de predicciones correctas hechas como una proporción de todas las predicciones hechas.</t>
+  </si>
+  <si>
+    <t>Precisión=TP/predicciones</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Cuando tenemos un desequilibrio de clase, la precisión puede convertirse en una métrica poco fiable para medir nuestro desempeño. </t>
+  </si>
+  <si>
+    <t>La Exhaustividad nos da la tasa positiva verdadera (TPR), que es la proporción de los verdaderos positivos a todo lo positivo.</t>
+  </si>
+  <si>
+    <t>Exhausitividad : Tasa positiva verdadera = TP/Si reales</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Especificidad</t>
+  </si>
+  <si>
+    <r>
+      <t>Es la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF495057"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>verdadera tasa negativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF495057"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> o la proporción de verdaderos negativos a todo lo que debería haber sido clasificado como negativo.</t>
+    </r>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Indice Jaccard</t>
+  </si>
+  <si>
+    <t>El índice Jaccard o coeficiente de similitud Jaccard es una estadística utilizada para comprender las similitudes entre los conjuntos de muestras. La medición enfatiza la similitud entre conjuntos de muestras finitas y se define formalmente como el tamaño de la intersección dividido por el tamaño de la unión de los dos conjuntos etiquetados,</t>
+  </si>
+  <si>
+    <t>K-S</t>
+  </si>
+  <si>
+    <t>En la mayoría de los modelos de clasificación la K-S caerá entre 0 y 100, y cuanto más alto sea el valor mejor será el modelo para separar los casos positivos de los negativos.</t>
+  </si>
+  <si>
+    <t>Grafico de Ganancia y elevacion</t>
+  </si>
+  <si>
+    <t>Cuanto mayor sea la elevación (es decir, cuanto más lejos esté de la línea de base), mejor será el modelo.</t>
+  </si>
+  <si>
+    <t>El coeficiente de Gini o Índice de Gini es una métrica popular para los valores de clase desequilibrados.</t>
+  </si>
+  <si>
+    <t>Esta curva nos permite visualizar el equilibrio entre la tasa de verdaderos positivos y la tasa falsos positivos</t>
+  </si>
+  <si>
+    <t>Metricas de evaluacion del modelo:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +190,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF495057"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF495057"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -155,11 +272,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Énfasis5" xfId="3" builtinId="48"/>
@@ -220,7 +337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -972,7 +1088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1091,7 +1206,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1780,7 +1894,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2891,24 +3011,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2921,15 +3042,20 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2942,15 +3068,23 @@
       <c r="E3" s="4">
         <v>386249</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="F3" s="7">
+        <f>D3/E3</f>
+        <v>8.5929025058964548E-2</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM($D$3:D3)</f>
+        <v>33190</v>
+      </c>
+      <c r="H3" s="19">
+        <f>SUM($D$3:D3)/SUM($D$3:$D$12)</f>
+        <v>0.64883780032451666</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2963,15 +3097,23 @@
       <c r="E4" s="4">
         <v>517182</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F12" si="0">D4/E4</f>
+        <v>7.8579687614804845E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM($D$3:D4)</f>
+        <v>37254</v>
+      </c>
+      <c r="H4" s="19">
+        <f>SUM($D$3:D4)/SUM($D$3:$D$12)</f>
+        <v>0.72828573104216765</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2984,15 +3126,23 @@
       <c r="E5" s="4">
         <v>342864</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2440617854309576E-3</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM($D$3:D5)</f>
+        <v>39052</v>
+      </c>
+      <c r="H5" s="19">
+        <f>SUM($D$3:D5)/SUM($D$3:$D$12)</f>
+        <v>0.76343518464215199</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
@@ -3005,15 +3155,23 @@
       <c r="E6" s="4">
         <v>349110</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8380166709633063E-3</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM($D$3:D6)</f>
+        <v>40741</v>
+      </c>
+      <c r="H6" s="19">
+        <f>SUM($D$3:D6)/SUM($D$3:$D$12)</f>
+        <v>0.79645377592712063</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -3026,15 +3184,23 @@
       <c r="E7" s="4">
         <v>496516</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8970909295974353E-3</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM($D$3:D7)</f>
+        <v>43669</v>
+      </c>
+      <c r="H7" s="19">
+        <f>SUM($D$3:D7)/SUM($D$3:$D$12)</f>
+        <v>0.85369382049928644</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3047,15 +3213,23 @@
       <c r="E8" s="4">
         <v>388996</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8818085533013193E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM($D$3:D8)</f>
+        <v>45957</v>
+      </c>
+      <c r="H8" s="19">
+        <f>SUM($D$3:D8)/SUM($D$3:$D$12)</f>
+        <v>0.89842237991906637</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
@@ -3068,15 +3242,23 @@
       <c r="E9" s="4">
         <v>259444</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>9.9212161391282905E-3</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM($D$3:D9)</f>
+        <v>48531</v>
+      </c>
+      <c r="H9" s="19">
+        <f>SUM($D$3:D9)/SUM($D$3:$D$12)</f>
+        <v>0.94874200926631869</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
@@ -3089,15 +3271,23 @@
       <c r="E10" s="4">
         <v>286367</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6932782059385331E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM($D$3:D10)</f>
+        <v>49875</v>
+      </c>
+      <c r="H10" s="19">
+        <f>SUM($D$3:D10)/SUM($D$3:$D$12)</f>
+        <v>0.9750161280863292</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -3110,15 +3300,23 @@
       <c r="E11" s="4">
         <v>110652</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>9.136753063659039E-3</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM($D$3:D11)</f>
+        <v>50886</v>
+      </c>
+      <c r="H11" s="19">
+        <f>SUM($D$3:D11)/SUM($D$3:$D$12)</f>
+        <v>0.99478036478798892</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3131,19 +3329,27 @@
       <c r="E12" s="4">
         <v>163235</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6356786228443655E-3</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM($D$3:D12)</f>
+        <v>51153</v>
+      </c>
+      <c r="H12" s="19">
+        <f>SUM($D$3:D12)/SUM($D$3:$D$12)</f>
+        <v>1</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="9">
         <f>+SUM(D3:D12)</f>
         <v>51153</v>
@@ -3158,17 +3364,15 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3177,11 +3381,10 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10"/>
@@ -3189,12 +3392,14 @@
       <c r="E16" s="10"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="3"/>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3202,12 +3407,14 @@
       <c r="E17" s="10"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="3"/>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3215,12 +3422,11 @@
       <c r="E18" s="10"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3"/>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
@@ -3228,12 +3434,14 @@
       <c r="E19" s="10"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="3"/>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3241,12 +3449,14 @@
       <c r="E20" s="10"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="3"/>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3254,36 +3464,43 @@
       <c r="E21" s="10"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="3"/>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="M22" s="5"/>
+      <c r="G22" s="17"/>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="M23" s="5"/>
+      <c r="G23" s="17"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3291,10 +3508,14 @@
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3302,10 +3523,14 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3313,10 +3538,14 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3324,11 +3553,15 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B44:L53">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B44:K53">
     <sortCondition ref="C44:C53"/>
   </sortState>
   <mergeCells count="1">
